--- a/NC State Senate/SD17/Results.xlsx
+++ b/NC State Senate/SD17/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State Senate\SD17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4581D5CC-E430-4D51-9905-04F6C198F6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207DE3F-353B-4E3F-8387-862C67A1371B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SD16" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="2016 Results" sheetId="11" r:id="rId5"/>
     <sheet name="2012 Wake" sheetId="10" r:id="rId6"/>
     <sheet name="2012 Results" sheetId="12" r:id="rId7"/>
+    <sheet name="2016 Gov Wake" sheetId="16" r:id="rId8"/>
+    <sheet name="2016 Gov Results" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="250">
   <si>
     <t>Precinct</t>
   </si>
@@ -10732,7 +10734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F5C66C-489A-4794-9077-C6EED4C15AB7}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -11885,4 +11887,4023 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B024D34-A526-40C3-A772-823F67274A7E}">
+  <dimension ref="A1:D203"/>
+  <sheetViews>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196:D203"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>1715.699187392268</v>
+      </c>
+      <c r="C2">
+        <v>460.33204793682313</v>
+      </c>
+      <c r="D2">
+        <v>2216.9288510373658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3">
+        <v>1491.9123368628418</v>
+      </c>
+      <c r="C3">
+        <v>623.7499249543954</v>
+      </c>
+      <c r="D3">
+        <v>2154.5149967400985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4">
+        <v>1572.724255109579</v>
+      </c>
+      <c r="C4">
+        <v>1058.7637102546933</v>
+      </c>
+      <c r="D4">
+        <v>2666.2509387163054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5">
+        <v>954.20226545185926</v>
+      </c>
+      <c r="C5">
+        <v>570.81173944166073</v>
+      </c>
+      <c r="D5">
+        <v>1545.4628127476574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6">
+        <v>885.82295001231228</v>
+      </c>
+      <c r="C6">
+        <v>570.81173944166073</v>
+      </c>
+      <c r="D6">
+        <v>1468.9039741664553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7">
+        <v>2010.9735040630387</v>
+      </c>
+      <c r="C7">
+        <v>674.38645022744595</v>
+      </c>
+      <c r="D7">
+        <v>2754.8859009945522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8">
+        <v>1684.6176803742921</v>
+      </c>
+      <c r="C8">
+        <v>393.5839009859838</v>
+      </c>
+      <c r="D8">
+        <v>2094.560627643586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9">
+        <v>385.41068702290079</v>
+      </c>
+      <c r="C9">
+        <v>52.938185512734663</v>
+      </c>
+      <c r="D9">
+        <v>444.48351489187667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10">
+        <v>1150.0157596651072</v>
+      </c>
+      <c r="C10">
+        <v>377.47227930819497</v>
+      </c>
+      <c r="D10">
+        <v>1552.0266083982669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11">
+        <v>1380.0189115981286</v>
+      </c>
+      <c r="C11">
+        <v>715.81633454176006</v>
+      </c>
+      <c r="D11">
+        <v>2106.0596500669571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12">
+        <v>1019.4734301896085</v>
+      </c>
+      <c r="C12">
+        <v>1339.5662594961555</v>
+      </c>
+      <c r="D12">
+        <v>2379.4884975399013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13">
+        <v>1582.0487072149717</v>
+      </c>
+      <c r="C13">
+        <v>743.43625741796939</v>
+      </c>
+      <c r="D13">
+        <v>2358.203057199561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14">
+        <v>1529.2101452844129</v>
+      </c>
+      <c r="C14">
+        <v>336.04239499388092</v>
+      </c>
+      <c r="D14">
+        <v>1889.7911097032586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15">
+        <v>2461.6553558236888</v>
+      </c>
+      <c r="C15">
+        <v>678.98977070681417</v>
+      </c>
+      <c r="D15">
+        <v>3199.9466693075019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16">
+        <v>1044.3386358039893</v>
+      </c>
+      <c r="C16">
+        <v>734.22961645923294</v>
+      </c>
+      <c r="D16">
+        <v>1794.9272985465323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17">
+        <v>1812.0518591479931</v>
+      </c>
+      <c r="C17">
+        <v>879.23421155933227</v>
+      </c>
+      <c r="D17">
+        <v>2732.1836864156003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18">
+        <v>618.52198965771981</v>
+      </c>
+      <c r="C18">
+        <v>522.47687440829429</v>
+      </c>
+      <c r="D18">
+        <v>1163.4925527055652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19">
+        <v>1585.1568579167695</v>
+      </c>
+      <c r="C19">
+        <v>994.31722354353803</v>
+      </c>
+      <c r="D19">
+        <v>2634.6858626664784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20">
+        <v>1532.3182959862104</v>
+      </c>
+      <c r="C20">
+        <v>82.859768628628174</v>
+      </c>
+      <c r="D20">
+        <v>1631.5371108981485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21">
+        <v>1895.971928096528</v>
+      </c>
+      <c r="C21">
+        <v>193.33946013346574</v>
+      </c>
+      <c r="D21">
+        <v>2124.074361582027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22">
+        <v>2607.7384388081755</v>
+      </c>
+      <c r="C22">
+        <v>780.26282125291527</v>
+      </c>
+      <c r="D22">
+        <v>3496.3799416880192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23">
+        <v>2648.1443979315441</v>
+      </c>
+      <c r="C23">
+        <v>131.1946336619946</v>
+      </c>
+      <c r="D23">
+        <v>2805.922481803917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24">
+        <v>3484.236936715095</v>
+      </c>
+      <c r="C24">
+        <v>1344.1695799755237</v>
+      </c>
+      <c r="D24">
+        <v>4983.817456382063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25">
+        <v>469.33075597143562</v>
+      </c>
+      <c r="C25">
+        <v>29.921583115893505</v>
+      </c>
+      <c r="D25">
+        <v>503.3421006581566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26">
+        <v>1942.5941886234918</v>
+      </c>
+      <c r="C26">
+        <v>115.08301198420578</v>
+      </c>
+      <c r="D26">
+        <v>2082.2157700326625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27">
+        <v>1606.9139128293525</v>
+      </c>
+      <c r="C27">
+        <v>232.4676842080957</v>
+      </c>
+      <c r="D27">
+        <v>1855.7406433207582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28">
+        <v>3133.0159074119679</v>
+      </c>
+      <c r="C28">
+        <v>501.76193225113724</v>
+      </c>
+      <c r="D28">
+        <v>3708.3935479379998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29">
+        <v>1467.047131248461</v>
+      </c>
+      <c r="C29">
+        <v>1226.7849077516337</v>
+      </c>
+      <c r="D29">
+        <v>2714.2808468542321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30">
+        <v>808.11918246737264</v>
+      </c>
+      <c r="C30">
+        <v>603.03498279723829</v>
+      </c>
+      <c r="D30">
+        <v>1427.5132115479209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31">
+        <v>2558.0080275794139</v>
+      </c>
+      <c r="C31">
+        <v>524.7785346479784</v>
+      </c>
+      <c r="D31">
+        <v>3191.1652438543206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32">
+        <v>1861.7822703767547</v>
+      </c>
+      <c r="C32">
+        <v>596.13000207818595</v>
+      </c>
+      <c r="D32">
+        <v>2525.3933383735944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33">
+        <v>1112.7179512435362</v>
+      </c>
+      <c r="C33">
+        <v>628.35324543376362</v>
+      </c>
+      <c r="D33">
+        <v>1761.5200045314371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34">
+        <v>1606.9139128293525</v>
+      </c>
+      <c r="C34">
+        <v>80.558108388944049</v>
+      </c>
+      <c r="D34">
+        <v>1697.6964251453653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35">
+        <v>1606.9139128293525</v>
+      </c>
+      <c r="C35">
+        <v>66.748146950839356</v>
+      </c>
+      <c r="D35">
+        <v>1681.8415829218468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36">
+        <v>1249.4765821226299</v>
+      </c>
+      <c r="C36">
+        <v>1125.5118572055326</v>
+      </c>
+      <c r="D36">
+        <v>2411.7962934656102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37">
+        <v>1187.3135680866783</v>
+      </c>
+      <c r="C37">
+        <v>766.45285981481061</v>
+      </c>
+      <c r="D37">
+        <v>1984.4396396826951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38">
+        <v>1283.6662398424035</v>
+      </c>
+      <c r="C38">
+        <v>485.65031057334841</v>
+      </c>
+      <c r="D38">
+        <v>1820.4385700510954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39">
+        <v>1205.9624722974638</v>
+      </c>
+      <c r="C39">
+        <v>481.04699009398018</v>
+      </c>
+      <c r="D39">
+        <v>1723.8173165288913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40">
+        <v>3011.7980300418617</v>
+      </c>
+      <c r="C40">
+        <v>214.05440229062276</v>
+      </c>
+      <c r="D40">
+        <v>3268.7949288261734</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41">
+        <v>1622.4546663383405</v>
+      </c>
+      <c r="C41">
+        <v>501.76193225113724</v>
+      </c>
+      <c r="D41">
+        <v>2181.4732605810623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42">
+        <v>985.28377246983507</v>
+      </c>
+      <c r="C42">
+        <v>1155.4334403214261</v>
+      </c>
+      <c r="D42">
+        <v>2159.1211398599849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43">
+        <v>1501.2367889682346</v>
+      </c>
+      <c r="C43">
+        <v>547.79513704481951</v>
+      </c>
+      <c r="D43">
+        <v>2094.0193032921566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44">
+        <v>1883.5393252893377</v>
+      </c>
+      <c r="C44">
+        <v>840.10598748470227</v>
+      </c>
+      <c r="D44">
+        <v>2784.9917363364525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45">
+        <v>994.60822457522784</v>
+      </c>
+      <c r="C45">
+        <v>669.78312974807773</v>
+      </c>
+      <c r="D45">
+        <v>1709.3787316024082</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46">
+        <v>1998.5409012558484</v>
+      </c>
+      <c r="C46">
+        <v>257.78594684462098</v>
+      </c>
+      <c r="D46">
+        <v>2295.1795830233305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47">
+        <v>1153.1239103669047</v>
+      </c>
+      <c r="C47">
+        <v>1047.2554090562726</v>
+      </c>
+      <c r="D47">
+        <v>2239.2320543460387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48">
+        <v>1920.8371337109088</v>
+      </c>
+      <c r="C48">
+        <v>563.9067587226084</v>
+      </c>
+      <c r="D48">
+        <v>2578.8084085625496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49">
+        <v>2153.9484363457277</v>
+      </c>
+      <c r="C49">
+        <v>639.86154663218417</v>
+      </c>
+      <c r="D49">
+        <v>2869.4705720382208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50">
+        <v>1743.6725437084463</v>
+      </c>
+      <c r="C50">
+        <v>147.30625533978341</v>
+      </c>
+      <c r="D50">
+        <v>1919.6071300440219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51">
+        <v>721.09096281704024</v>
+      </c>
+      <c r="C51">
+        <v>425.80714434156141</v>
+      </c>
+      <c r="D51">
+        <v>1169.391795798153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52">
+        <v>1417.3167200196997</v>
+      </c>
+      <c r="C52">
+        <v>1496.0791557946752</v>
+      </c>
+      <c r="D52">
+        <v>2964.5178954497187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53">
+        <v>2147.7321349421327</v>
+      </c>
+      <c r="C53">
+        <v>2460.4747962223196</v>
+      </c>
+      <c r="D53">
+        <v>4698.1816857226568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54">
+        <v>997.71637527702546</v>
+      </c>
+      <c r="C54">
+        <v>1380.9961438104694</v>
+      </c>
+      <c r="D54">
+        <v>2440.0589426499073</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55">
+        <v>895.14740211770504</v>
+      </c>
+      <c r="C55">
+        <v>1215.2766065532132</v>
+      </c>
+      <c r="D55">
+        <v>2137.0074588812968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56">
+        <v>643.38719527210048</v>
+      </c>
+      <c r="C56">
+        <v>665.1798092687095</v>
+      </c>
+      <c r="D56">
+        <v>1329.0158123949475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57">
+        <v>907.58000492489543</v>
+      </c>
+      <c r="C57">
+        <v>1415.5210474057312</v>
+      </c>
+      <c r="D57">
+        <v>2341.5049793993503</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>1662.8606254617091</v>
+      </c>
+      <c r="C58">
+        <v>1664.1003532916156</v>
+      </c>
+      <c r="D58">
+        <v>3427.1601372385981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>1569.6161044077814</v>
+      </c>
+      <c r="C59">
+        <v>876.93255131964816</v>
+      </c>
+      <c r="D59">
+        <v>2491.5360330065323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>1616.2383649347453</v>
+      </c>
+      <c r="C60">
+        <v>916.06077539427804</v>
+      </c>
+      <c r="D60">
+        <v>2595.6904446768494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61">
+        <v>1261.9091849298204</v>
+      </c>
+      <c r="C61">
+        <v>699.70471286397117</v>
+      </c>
+      <c r="D61">
+        <v>2022.9603213562041</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>1025.6897315932038</v>
+      </c>
+      <c r="C62">
+        <v>582.32004064008129</v>
+      </c>
+      <c r="D62">
+        <v>1679.580599722766</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63">
+        <v>1858.674119674957</v>
+      </c>
+      <c r="C63">
+        <v>1107.0985752880597</v>
+      </c>
+      <c r="D63">
+        <v>3016.8947145983607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64">
+        <v>1610.02206353115</v>
+      </c>
+      <c r="C64">
+        <v>1017.3338259403791</v>
+      </c>
+      <c r="D64">
+        <v>2686.657432248528</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65">
+        <v>1401.7759665107117</v>
+      </c>
+      <c r="C65">
+        <v>1424.7276883644677</v>
+      </c>
+      <c r="D65">
+        <v>2857.1768666563858</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66">
+        <v>1762.3214479192318</v>
+      </c>
+      <c r="C66">
+        <v>752.64289837670583</v>
+      </c>
+      <c r="D66">
+        <v>2572.2210082875222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>1352.0455552819503</v>
+      </c>
+      <c r="C67">
+        <v>1003.5238645022745</v>
+      </c>
+      <c r="D67">
+        <v>2388.2875123508447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>1669.0769268653041</v>
+      </c>
+      <c r="C68">
+        <v>1120.9085367261644</v>
+      </c>
+      <c r="D68">
+        <v>2869.7358142226044</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <v>814.33548387096778</v>
+      </c>
+      <c r="C69">
+        <v>292.3108504398827</v>
+      </c>
+      <c r="D69">
+        <v>1139.3644268774704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70">
+        <v>1376.9107608963311</v>
+      </c>
+      <c r="C70">
+        <v>1054.160389775325</v>
+      </c>
+      <c r="D70">
+        <v>2494.4624550194821</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>1637.9954198473283</v>
+      </c>
+      <c r="C71">
+        <v>1282.0247535040526</v>
+      </c>
+      <c r="D71">
+        <v>2981.3665969137933</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72">
+        <v>1159.3402117705</v>
+      </c>
+      <c r="C72">
+        <v>630.65490567344773</v>
+      </c>
+      <c r="D72">
+        <v>1851.3415410063601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73">
+        <v>1743.6725437084463</v>
+      </c>
+      <c r="C73">
+        <v>996.61888378322215</v>
+      </c>
+      <c r="D73">
+        <v>2828.2213012644593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74">
+        <v>1407.9922679143069</v>
+      </c>
+      <c r="C74">
+        <v>752.64289837670583</v>
+      </c>
+      <c r="D74">
+        <v>2207.667424355529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75">
+        <v>1153.1239103669047</v>
+      </c>
+      <c r="C75">
+        <v>589.22502135913362</v>
+      </c>
+      <c r="D75">
+        <v>1783.2465474343132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76">
+        <v>1541.6427480916032</v>
+      </c>
+      <c r="C76">
+        <v>814.78772484817694</v>
+      </c>
+      <c r="D76">
+        <v>2407.5524925751238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77">
+        <v>938.66151194287124</v>
+      </c>
+      <c r="C77">
+        <v>639.86154663218417</v>
+      </c>
+      <c r="D77">
+        <v>1641.9143629228815</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>1895.971928096528</v>
+      </c>
+      <c r="C78">
+        <v>899.94915371648926</v>
+      </c>
+      <c r="D78">
+        <v>2885.8958363712222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79">
+        <v>1265.0173356316179</v>
+      </c>
+      <c r="C79">
+        <v>435.01378530029785</v>
+      </c>
+      <c r="D79">
+        <v>1759.3326637089142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80">
+        <v>1992.3245998522532</v>
+      </c>
+      <c r="C80">
+        <v>1210.6732860738448</v>
+      </c>
+      <c r="D80">
+        <v>3307.286805982199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81">
+        <v>1277.4499384388082</v>
+      </c>
+      <c r="C81">
+        <v>1157.7351005611101</v>
+      </c>
+      <c r="D81">
+        <v>2484.2621778498478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82">
+        <v>3188.9626200443245</v>
+      </c>
+      <c r="C82">
+        <v>1576.6372641836192</v>
+      </c>
+      <c r="D82">
+        <v>4898.5171352798379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83">
+        <v>2203.6788475744893</v>
+      </c>
+      <c r="C83">
+        <v>1661.7986930519317</v>
+      </c>
+      <c r="D83">
+        <v>3932.9586065450744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84">
+        <v>2738.2807682836742</v>
+      </c>
+      <c r="C84">
+        <v>1406.3144064469948</v>
+      </c>
+      <c r="D84">
+        <v>4261.1533794992529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>1426.6411721250925</v>
+      </c>
+      <c r="C85">
+        <v>561.60509848292429</v>
+      </c>
+      <c r="D85">
+        <v>2037.3234094579468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86">
+        <v>1498.1286382664368</v>
+      </c>
+      <c r="C86">
+        <v>998.92054402290626</v>
+      </c>
+      <c r="D86">
+        <v>2599.2932215600304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87">
+        <v>1115.8261019453337</v>
+      </c>
+      <c r="C87">
+        <v>1196.8633246357401</v>
+      </c>
+      <c r="D87">
+        <v>2365.8563270018312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88">
+        <v>2107.3261758187641</v>
+      </c>
+      <c r="C88">
+        <v>1981.7294663680236</v>
+      </c>
+      <c r="D88">
+        <v>4219.928012453267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89">
+        <v>1684.6176803742921</v>
+      </c>
+      <c r="C89">
+        <v>1344.1695799755237</v>
+      </c>
+      <c r="D89">
+        <v>3098.3132070538832</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>1100.2853484363459</v>
+      </c>
+      <c r="C90">
+        <v>777.96116101323116</v>
+      </c>
+      <c r="D90">
+        <v>1929.3685290849205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91">
+        <v>1976.7838463432654</v>
+      </c>
+      <c r="C91">
+        <v>1974.8244856489714</v>
+      </c>
+      <c r="D91">
+        <v>4062.0318944045789</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92">
+        <v>1050.5549372075843</v>
+      </c>
+      <c r="C92">
+        <v>1160.0367608007944</v>
+      </c>
+      <c r="D92">
+        <v>2273.9830023562045</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93">
+        <v>1348.9374045801528</v>
+      </c>
+      <c r="C93">
+        <v>614.54328399565895</v>
+      </c>
+      <c r="D93">
+        <v>2020.7373505673966</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94">
+        <v>910.68815562669295</v>
+      </c>
+      <c r="C94">
+        <v>563.9067587226084</v>
+      </c>
+      <c r="D94">
+        <v>1501.1783645596799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B95">
+        <v>693.11760650086194</v>
+      </c>
+      <c r="C95">
+        <v>635.25822615281595</v>
+      </c>
+      <c r="D95">
+        <v>1342.6899981515742</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B96">
+        <v>2101.1098744151686</v>
+      </c>
+      <c r="C96">
+        <v>920.66409587364626</v>
+      </c>
+      <c r="D96">
+        <v>3115.838486417847</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97">
+        <v>1000.824525978823</v>
+      </c>
+      <c r="C97">
+        <v>644.46486711155239</v>
+      </c>
+      <c r="D97">
+        <v>1694.3665319403053</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B98">
+        <v>1451.5063777394732</v>
+      </c>
+      <c r="C98">
+        <v>1302.7396956612095</v>
+      </c>
+      <c r="D98">
+        <v>2805.3680930360265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>2010.9735040630387</v>
+      </c>
+      <c r="C99">
+        <v>1201.4666451151083</v>
+      </c>
+      <c r="D99">
+        <v>3263.5621688134911</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100">
+        <v>755.28062053681367</v>
+      </c>
+      <c r="C100">
+        <v>400.48888170503614</v>
+      </c>
+      <c r="D100">
+        <v>1161.9041445980911</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B101">
+        <v>1650.4280226545186</v>
+      </c>
+      <c r="C101">
+        <v>835.50266700533405</v>
+      </c>
+      <c r="D101">
+        <v>2547.2771132222651</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102">
+        <v>2362.1945333661661</v>
+      </c>
+      <c r="C102">
+        <v>1217.5782667928972</v>
+      </c>
+      <c r="D102">
+        <v>3677.927077858923</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103">
+        <v>755.28062053681367</v>
+      </c>
+      <c r="C103">
+        <v>545.4934768051354</v>
+      </c>
+      <c r="D103">
+        <v>1315.0882628398454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104">
+        <v>1457.7226791430683</v>
+      </c>
+      <c r="C104">
+        <v>782.56448149259938</v>
+      </c>
+      <c r="D104">
+        <v>2275.050133987701</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105">
+        <v>1059.8793893129771</v>
+      </c>
+      <c r="C105">
+        <v>621.44826471471129</v>
+      </c>
+      <c r="D105">
+        <v>1740.6291968046869</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106">
+        <v>1799.6192563408028</v>
+      </c>
+      <c r="C106">
+        <v>1183.0533631976355</v>
+      </c>
+      <c r="D106">
+        <v>3052.1985662425054</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107">
+        <v>1936.3778872198968</v>
+      </c>
+      <c r="C107">
+        <v>1397.1077654882583</v>
+      </c>
+      <c r="D107">
+        <v>3427.5501688371874</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108">
+        <v>1007.0408273824182</v>
+      </c>
+      <c r="C108">
+        <v>920.66409587364626</v>
+      </c>
+      <c r="D108">
+        <v>1956.3332542518567</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109">
+        <v>1125.1505540507264</v>
+      </c>
+      <c r="C109">
+        <v>883.83753203870049</v>
+      </c>
+      <c r="D109">
+        <v>2049.8857017977016</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B110">
+        <v>1296.0988426495937</v>
+      </c>
+      <c r="C110">
+        <v>446.52208649871847</v>
+      </c>
+      <c r="D110">
+        <v>1801.9224719253107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111">
+        <v>1479.4797340556513</v>
+      </c>
+      <c r="C111">
+        <v>1302.7396956612095</v>
+      </c>
+      <c r="D111">
+        <v>2857.8800187771694</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112">
+        <v>1812.0518591479931</v>
+      </c>
+      <c r="C112">
+        <v>1498.3808160343594</v>
+      </c>
+      <c r="D112">
+        <v>3375.8688603155924</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>1078.5282935237626</v>
+      </c>
+      <c r="C113">
+        <v>616.84494423534306</v>
+      </c>
+      <c r="D113">
+        <v>1730.1362111111393</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114">
+        <v>1355.1537059837478</v>
+      </c>
+      <c r="C114">
+        <v>752.64289837670583</v>
+      </c>
+      <c r="D114">
+        <v>2152.7839816395563</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115">
+        <v>2318.680423541</v>
+      </c>
+      <c r="C115">
+        <v>1235.9915487103701</v>
+      </c>
+      <c r="D115">
+        <v>3638.5120844533335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116">
+        <v>823.65993597636054</v>
+      </c>
+      <c r="C116">
+        <v>1104.7969150483755</v>
+      </c>
+      <c r="D116">
+        <v>1965.2647051621834</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117">
+        <v>1252.5847328244276</v>
+      </c>
+      <c r="C117">
+        <v>612.24162375597484</v>
+      </c>
+      <c r="D117">
+        <v>1899.5893299324362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118">
+        <v>506.62856439300668</v>
+      </c>
+      <c r="C118">
+        <v>612.24162375597484</v>
+      </c>
+      <c r="D118">
+        <v>1135.2292344322914</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119">
+        <v>366.76178281211526</v>
+      </c>
+      <c r="C119">
+        <v>517.87355392892607</v>
+      </c>
+      <c r="D119">
+        <v>907.12902538059257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120">
+        <v>1268.1254863334154</v>
+      </c>
+      <c r="C120">
+        <v>966.69730066732859</v>
+      </c>
+      <c r="D120">
+        <v>2277.7652834944329</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121">
+        <v>879.60664860871714</v>
+      </c>
+      <c r="C121">
+        <v>731.92795621954883</v>
+      </c>
+      <c r="D121">
+        <v>1644.2526973948857</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122">
+        <v>2231.6522038906674</v>
+      </c>
+      <c r="C122">
+        <v>1604.2571870598288</v>
+      </c>
+      <c r="D122">
+        <v>3887.0314105858401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123">
+        <v>2259.6255602068459</v>
+      </c>
+      <c r="C123">
+        <v>1063.3670307340615</v>
+      </c>
+      <c r="D123">
+        <v>3417.0571070699398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124">
+        <v>2181.9217926619062</v>
+      </c>
+      <c r="C124">
+        <v>1452.347611240677</v>
+      </c>
+      <c r="D124">
+        <v>3734.4685623878568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125">
+        <v>1768.537749322827</v>
+      </c>
+      <c r="C125">
+        <v>2324.6768420809572</v>
+      </c>
+      <c r="D125">
+        <v>4195.4586306744714</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126">
+        <v>2088.6772716079786</v>
+      </c>
+      <c r="C126">
+        <v>1740.0551412011914</v>
+      </c>
+      <c r="D126">
+        <v>3957.5599022902361</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>1451.5063777394732</v>
+      </c>
+      <c r="C127">
+        <v>2253.3253746507494</v>
+      </c>
+      <c r="D127">
+        <v>3800.9411493046682</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <v>2188.1380940655013</v>
+      </c>
+      <c r="C128">
+        <v>2382.21834807306</v>
+      </c>
+      <c r="D128">
+        <v>4693.0492892633865</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129">
+        <v>1146.9076089633097</v>
+      </c>
+      <c r="C129">
+        <v>1305.0413559008937</v>
+      </c>
+      <c r="D129">
+        <v>2546.0134809932356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>1010.1489780842157</v>
+      </c>
+      <c r="C130">
+        <v>1111.7018957674279</v>
+      </c>
+      <c r="D130">
+        <v>2179.1075358432286</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <v>1843.1333661659692</v>
+      </c>
+      <c r="C131">
+        <v>1314.2479968596301</v>
+      </c>
+      <c r="D131">
+        <v>3224.8624289442528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132">
+        <v>1255.6928835262252</v>
+      </c>
+      <c r="C132">
+        <v>1427.0293486041519</v>
+      </c>
+      <c r="D132">
+        <v>2744.0686556927894</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133">
+        <v>2598.4139867027829</v>
+      </c>
+      <c r="C133">
+        <v>513.27023344955785</v>
+      </c>
+      <c r="D133">
+        <v>3181.2101668564083</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B134">
+        <v>991.50007387343021</v>
+      </c>
+      <c r="C134">
+        <v>874.63089107996404</v>
+      </c>
+      <c r="D134">
+        <v>1892.7144151637729</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B135">
+        <v>1342.7211031765576</v>
+      </c>
+      <c r="C135">
+        <v>441.91876601935024</v>
+      </c>
+      <c r="D135">
+        <v>1827.5823656895964</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B136">
+        <v>1292.9906919477962</v>
+      </c>
+      <c r="C136">
+        <v>934.47405731175104</v>
+      </c>
+      <c r="D136">
+        <v>2264.2726033969948</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137">
+        <v>1482.587884757449</v>
+      </c>
+      <c r="C137">
+        <v>614.54328399565895</v>
+      </c>
+      <c r="D137">
+        <v>2148.2531883884517</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138">
+        <v>1812.0518591479931</v>
+      </c>
+      <c r="C138">
+        <v>379.77393954787908</v>
+      </c>
+      <c r="D138">
+        <v>2234.7682951895613</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B139">
+        <v>2244.0848066978579</v>
+      </c>
+      <c r="C139">
+        <v>697.40305262428706</v>
+      </c>
+      <c r="D139">
+        <v>3025.3279715241083</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B140">
+        <v>2383.9515882787491</v>
+      </c>
+      <c r="C140">
+        <v>1954.1095434918143</v>
+      </c>
+      <c r="D140">
+        <v>4425.9910055433547</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B141">
+        <v>1177.9891159812855</v>
+      </c>
+      <c r="C141">
+        <v>998.92054402290626</v>
+      </c>
+      <c r="D141">
+        <v>2221.8970372832941</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142">
+        <v>394.73513912829355</v>
+      </c>
+      <c r="C142">
+        <v>653.67150807028884</v>
+      </c>
+      <c r="D142">
+        <v>1070.9003358381337</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143">
+        <v>2119.7587786259542</v>
+      </c>
+      <c r="C143">
+        <v>3335.105687302284</v>
+      </c>
+      <c r="D143">
+        <v>5550.973862842684</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B144">
+        <v>1305.4232947549865</v>
+      </c>
+      <c r="C144">
+        <v>1809.104948391715</v>
+      </c>
+      <c r="D144">
+        <v>3171.7849051382859</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B145">
+        <v>2079.3528195025856</v>
+      </c>
+      <c r="C145">
+        <v>2237.2137529729607</v>
+      </c>
+      <c r="D145">
+        <v>4422.9003733170612</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B146">
+        <v>1575.8324058113767</v>
+      </c>
+      <c r="C146">
+        <v>2660.719237074838</v>
+      </c>
+      <c r="D146">
+        <v>4304.032708804868</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147">
+        <v>764.60507264220644</v>
+      </c>
+      <c r="C147">
+        <v>985.11058258480159</v>
+      </c>
+      <c r="D147">
+        <v>1794.7030325061105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148">
+        <v>1087.8527456291554</v>
+      </c>
+      <c r="C148">
+        <v>973.60228138638092</v>
+      </c>
+      <c r="D148">
+        <v>2106.4424042946389</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B149">
+        <v>2601.5221374045805</v>
+      </c>
+      <c r="C149">
+        <v>600.73332255755417</v>
+      </c>
+      <c r="D149">
+        <v>3239.0633140995819</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B150">
+        <v>951.09411475006164</v>
+      </c>
+      <c r="C150">
+        <v>520.17521416861018</v>
+      </c>
+      <c r="D150">
+        <v>1532.6157524810842</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151">
+        <v>1137.5831568579169</v>
+      </c>
+      <c r="C151">
+        <v>807.8827441291246</v>
+      </c>
+      <c r="D151">
+        <v>1992.4981590515576</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B152">
+        <v>1047.4467865057868</v>
+      </c>
+      <c r="C152">
+        <v>934.47405731175104</v>
+      </c>
+      <c r="D152">
+        <v>2026.9082210966403</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>848.52514159074121</v>
+      </c>
+      <c r="C153">
+        <v>375.17061906851086</v>
+      </c>
+      <c r="D153">
+        <v>1264.5933763675271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B154">
+        <v>1495.0204875646393</v>
+      </c>
+      <c r="C154">
+        <v>1268.2147920659479</v>
+      </c>
+      <c r="D154">
+        <v>2842.9856302617231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B155">
+        <v>3866.5394730361982</v>
+      </c>
+      <c r="C155">
+        <v>609.93996351629073</v>
+      </c>
+      <c r="D155">
+        <v>4546.0053832565554</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B156">
+        <v>1448.3982270376755</v>
+      </c>
+      <c r="C156">
+        <v>920.66409587364626</v>
+      </c>
+      <c r="D156">
+        <v>2407.9150578341828</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B157">
+        <v>1569.6161044077814</v>
+      </c>
+      <c r="C157">
+        <v>552.39845752418773</v>
+      </c>
+      <c r="D157">
+        <v>2162.912177640244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B158">
+        <v>438.24924895345976</v>
+      </c>
+      <c r="C158">
+        <v>352.15401667166969</v>
+      </c>
+      <c r="D158">
+        <v>810.85207347926701</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159">
+        <v>2688.5503570549126</v>
+      </c>
+      <c r="C159">
+        <v>1141.6234788833215</v>
+      </c>
+      <c r="D159">
+        <v>3916.0588289256116</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B160">
+        <v>1992.3245998522532</v>
+      </c>
+      <c r="C160">
+        <v>1079.4786524118504</v>
+      </c>
+      <c r="D160">
+        <v>3184.2716954618591</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161">
+        <v>2231.6522038906674</v>
+      </c>
+      <c r="C161">
+        <v>879.23421155933227</v>
+      </c>
+      <c r="D161">
+        <v>3180.4123621540671</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B162">
+        <v>957.31041615365677</v>
+      </c>
+      <c r="C162">
+        <v>849.31262844343871</v>
+      </c>
+      <c r="D162">
+        <v>1833.2064948074742</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B163">
+        <v>2017.189805466634</v>
+      </c>
+      <c r="C163">
+        <v>370.56729858914264</v>
+      </c>
+      <c r="D163">
+        <v>2420.4751966223967</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B164">
+        <v>2946.5268653041126</v>
+      </c>
+      <c r="C164">
+        <v>1514.4924377121481</v>
+      </c>
+      <c r="D164">
+        <v>4579.6223885702584</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165">
+        <v>2477.1961093326768</v>
+      </c>
+      <c r="C165">
+        <v>290.00919020019859</v>
+      </c>
+      <c r="D165">
+        <v>2801.9682728849089</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B166">
+        <v>655.81979807929088</v>
+      </c>
+      <c r="C166">
+        <v>299.21583115893503</v>
+      </c>
+      <c r="D166">
+        <v>977.5293178777772</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167">
+        <v>2359.0863826643686</v>
+      </c>
+      <c r="C167">
+        <v>782.56448149259938</v>
+      </c>
+      <c r="D167">
+        <v>3198.9075261485527</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B168">
+        <v>3275.9908396946566</v>
+      </c>
+      <c r="C168">
+        <v>1049.5570692959568</v>
+      </c>
+      <c r="D168">
+        <v>4493.2281333945402</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B169">
+        <v>1765.4295986210295</v>
+      </c>
+      <c r="C169">
+        <v>2152.0523241046481</v>
+      </c>
+      <c r="D169">
+        <v>3999.2771541422276</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B170">
+        <v>1423.5330214232949</v>
+      </c>
+      <c r="C170">
+        <v>996.61888378322215</v>
+      </c>
+      <c r="D170">
+        <v>2463.0944017002057</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B171">
+        <v>1737.4562423048512</v>
+      </c>
+      <c r="C171">
+        <v>1714.7368785646663</v>
+      </c>
+      <c r="D171">
+        <v>3533.9883522860678</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B172">
+        <v>1955.0267914306821</v>
+      </c>
+      <c r="C172">
+        <v>1845.9315122266607</v>
+      </c>
+      <c r="D172">
+        <v>3860.2598464343419</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B173">
+        <v>2533.1428219650334</v>
+      </c>
+      <c r="C173">
+        <v>1054.160389775325</v>
+      </c>
+      <c r="D173">
+        <v>3714.0858204360102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B174">
+        <v>1072.3119921201676</v>
+      </c>
+      <c r="C174">
+        <v>1456.9509317200452</v>
+      </c>
+      <c r="D174">
+        <v>2582.4298242609702</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175">
+        <v>1973.6756956414677</v>
+      </c>
+      <c r="C175">
+        <v>1558.2239822661463</v>
+      </c>
+      <c r="D175">
+        <v>3599.3807438262679</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B176">
+        <v>1249.4765821226299</v>
+      </c>
+      <c r="C176">
+        <v>1404.0127462073106</v>
+      </c>
+      <c r="D176">
+        <v>2737.3294405319043</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B177">
+        <v>2415.0330952967252</v>
+      </c>
+      <c r="C177">
+        <v>2421.3465721476896</v>
+      </c>
+      <c r="D177">
+        <v>4959.0725145692395</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B178">
+        <v>1059.8793893129771</v>
+      </c>
+      <c r="C178">
+        <v>1786.0883459948739</v>
+      </c>
+      <c r="D178">
+        <v>2888.9102318015398</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B179">
+        <v>1218.3950751046541</v>
+      </c>
+      <c r="C179">
+        <v>1160.0367608007944</v>
+      </c>
+      <c r="D179">
+        <v>2429.5538555407925</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B180">
+        <v>1069.2038414183698</v>
+      </c>
+      <c r="C180">
+        <v>1265.9131318262637</v>
+      </c>
+      <c r="D180">
+        <v>2388.2838736653907</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B181">
+        <v>2163.2728884511207</v>
+      </c>
+      <c r="C181">
+        <v>2425.949892627058</v>
+      </c>
+      <c r="D181">
+        <v>4695.5565819196936</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182">
+        <v>1019.4734301896085</v>
+      </c>
+      <c r="C182">
+        <v>1166.9417415198468</v>
+      </c>
+      <c r="D182">
+        <v>2266.1655223405915</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B183">
+        <v>1684.6176803742921</v>
+      </c>
+      <c r="C183">
+        <v>1712.4352183249821</v>
+      </c>
+      <c r="D183">
+        <v>3470.6686069741691</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184">
+        <v>1090.9608963309531</v>
+      </c>
+      <c r="C184">
+        <v>699.70471286397117</v>
+      </c>
+      <c r="D184">
+        <v>1821.3388209761306</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185">
+        <v>1072.3119921201676</v>
+      </c>
+      <c r="C185">
+        <v>1061.0653704943775</v>
+      </c>
+      <c r="D185">
+        <v>2172.230097537406</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B186">
+        <v>1022.5815808914061</v>
+      </c>
+      <c r="C186">
+        <v>992.01556330385392</v>
+      </c>
+      <c r="D186">
+        <v>2043.2254751910525</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B187">
+        <v>1028.7978822950013</v>
+      </c>
+      <c r="C187">
+        <v>934.47405731175104</v>
+      </c>
+      <c r="D187">
+        <v>1981.6758666754761</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B188">
+        <v>2101.1098744151686</v>
+      </c>
+      <c r="C188">
+        <v>1192.2600041563719</v>
+      </c>
+      <c r="D188">
+        <v>3389.4792754859864</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B189">
+        <v>1501.2367889682346</v>
+      </c>
+      <c r="C189">
+        <v>1047.2554090562726</v>
+      </c>
+      <c r="D189">
+        <v>2646.6464757243671</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B190">
+        <v>1193.5298694902733</v>
+      </c>
+      <c r="C190">
+        <v>1192.2600041563719</v>
+      </c>
+      <c r="D190">
+        <v>2473.7197474194359</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B191">
+        <v>1815.1600098497909</v>
+      </c>
+      <c r="C191">
+        <v>1196.8633246357401</v>
+      </c>
+      <c r="D191">
+        <v>3083.594161975012</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B192">
+        <v>1507.4530903718296</v>
+      </c>
+      <c r="C192">
+        <v>1429.3310088438359</v>
+      </c>
+      <c r="D192">
+        <v>2985.861238065595</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B193">
+        <v>1973.6756956414677</v>
+      </c>
+      <c r="C193">
+        <v>1360.2812016533123</v>
+      </c>
+      <c r="D193">
+        <v>3434.1560557800535</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B194">
+        <v>1715.699187392268</v>
+      </c>
+      <c r="C194">
+        <v>1362.5828618929966</v>
+      </c>
+      <c r="D194">
+        <v>3180.5260885559514</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B195">
+        <v>1575.8324058113767</v>
+      </c>
+      <c r="C195">
+        <v>1468.4592329184659</v>
+      </c>
+      <c r="D195">
+        <v>3134.2663932880478</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B196">
+        <v>1249.4765821226299</v>
+      </c>
+      <c r="C196">
+        <v>1114.0035560071121</v>
+      </c>
+      <c r="D196">
+        <v>2402.3328730526032</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197">
+        <v>1684.6176803742921</v>
+      </c>
+      <c r="C197">
+        <v>1187.6566836770037</v>
+      </c>
+      <c r="D197">
+        <v>2927.4861452574669</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B198">
+        <v>1575.8324058113767</v>
+      </c>
+      <c r="C198">
+        <v>1489.174175075623</v>
+      </c>
+      <c r="D198">
+        <v>3159.0710970160317</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B199">
+        <v>860.95774439793161</v>
+      </c>
+      <c r="C199">
+        <v>929.87073683238282</v>
+      </c>
+      <c r="D199">
+        <v>1837.8607392948306</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B200">
+        <v>2486.5205614380698</v>
+      </c>
+      <c r="C200">
+        <v>1549.0173413074099</v>
+      </c>
+      <c r="D200">
+        <v>4119.3780149474433</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B201">
+        <v>1836.9170647623739</v>
+      </c>
+      <c r="C201">
+        <v>964.39564042764448</v>
+      </c>
+      <c r="D201">
+        <v>2893.3323405336369</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B202">
+        <v>1476.3715833538538</v>
+      </c>
+      <c r="C202">
+        <v>787.16780197196761</v>
+      </c>
+      <c r="D202">
+        <v>2335.1102128153025</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B203">
+        <v>1560.2916523023887</v>
+      </c>
+      <c r="C203">
+        <v>1038.0487680975361</v>
+      </c>
+      <c r="D203">
+        <v>2669.9112478894058</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A243130">
+    <sortCondition ref="A2:A243130"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C59C62-44AA-42ED-9541-AAF11D90B69F}">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1662.8606254617091</v>
+      </c>
+      <c r="C2">
+        <v>1664.1003532916156</v>
+      </c>
+      <c r="D2">
+        <v>3427.1601372385981</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2/D2</f>
+        <v>0.48520073730827862</v>
+      </c>
+      <c r="F2" s="2">
+        <f>C2/D2</f>
+        <v>0.4855624734922509</v>
+      </c>
+      <c r="G2" s="2">
+        <f>(B2-C2)/D2</f>
+        <v>-3.6173618397226134E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1401.7759665107117</v>
+      </c>
+      <c r="C3">
+        <v>1424.7276883644677</v>
+      </c>
+      <c r="D3">
+        <v>2857.1768666563858</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E44" si="0">B3/D3</f>
+        <v>0.49061574831772364</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F44" si="1">C3/D3</f>
+        <v>0.49864875534700681</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G44" si="2">(B3-C3)/D3</f>
+        <v>-8.0330070292831662E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1669.0769268653041</v>
+      </c>
+      <c r="C4">
+        <v>1120.9085367261644</v>
+      </c>
+      <c r="D4">
+        <v>2869.7358142226044</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58161344281004757</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39059642046869469</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1910170223413529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>1637.9954198473283</v>
+      </c>
+      <c r="C5">
+        <v>1282.0247535040526</v>
+      </c>
+      <c r="D5">
+        <v>2981.3665969137933</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54941093844109079</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43001244960319873</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11939848883789204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>1159.3402117705</v>
+      </c>
+      <c r="C6">
+        <v>630.65490567344773</v>
+      </c>
+      <c r="D6">
+        <v>1851.3415410063601</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62621627943394009</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34064752057074982</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.28556875886319022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>1743.6725437084463</v>
+      </c>
+      <c r="C7">
+        <v>996.61888378322215</v>
+      </c>
+      <c r="D7">
+        <v>2828.2213012644593</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6165262042715236</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35238362830293635</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26414257596858726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8">
+        <v>1407.9922679143069</v>
+      </c>
+      <c r="C8">
+        <v>752.64289837670583</v>
+      </c>
+      <c r="D8">
+        <v>2207.667424355529</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63777372097852725</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3409222286261801</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29685149235234709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>938.66151194287124</v>
+      </c>
+      <c r="C9">
+        <v>639.86154663218417</v>
+      </c>
+      <c r="D9">
+        <v>1641.9143629228815</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57168725308663304</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38970457965488764</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1819826734317454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>1498.1286382664368</v>
+      </c>
+      <c r="C10">
+        <v>998.92054402290626</v>
+      </c>
+      <c r="D10">
+        <v>2599.2932215600304</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5763599988797331</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38430467780136757</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19205532107836548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>1115.8261019453337</v>
+      </c>
+      <c r="C11">
+        <v>1196.8633246357401</v>
+      </c>
+      <c r="D11">
+        <v>2365.8563270018312</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47163730494124378</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50589011301142028</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.4252808070176499E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12">
+        <v>2107.3261758187641</v>
+      </c>
+      <c r="C12">
+        <v>1981.7294663680236</v>
+      </c>
+      <c r="D12">
+        <v>4219.928012453267</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49937491104111609</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46961214990393629</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9762761137179801E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13">
+        <v>1684.6176803742921</v>
+      </c>
+      <c r="C13">
+        <v>1344.1695799755237</v>
+      </c>
+      <c r="D13">
+        <v>3098.3132070538832</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54372091128132183</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43383915380642374</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10988175747489808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
+        <v>1100.2853484363459</v>
+      </c>
+      <c r="C14">
+        <v>777.96116101323116</v>
+      </c>
+      <c r="D14">
+        <v>1929.3685290849205</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57028262452181688</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40322061300658307</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16706201151523381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>1976.7838463432654</v>
+      </c>
+      <c r="C15">
+        <v>1974.8244856489714</v>
+      </c>
+      <c r="D15">
+        <v>4062.0318944045789</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48664902140878596</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48616666165750166</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8235975128432579E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>1050.5549372075843</v>
+      </c>
+      <c r="C16">
+        <v>1160.0367608007944</v>
+      </c>
+      <c r="D16">
+        <v>2273.9830023562045</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46198891377773887</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51013431481185811</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.8145401034119267E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1768.537749322827</v>
+      </c>
+      <c r="C17">
+        <v>2324.6768420809572</v>
+      </c>
+      <c r="D17">
+        <v>4195.4586306744714</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42153621451357581</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55409361567396431</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.1325574011603885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2088.6772716079786</v>
+      </c>
+      <c r="C18">
+        <v>1740.0551412011914</v>
+      </c>
+      <c r="D18">
+        <v>3957.5599022902361</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52776895945384505</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43967878798100396</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>8.8090171472841095E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1451.5063777394732</v>
+      </c>
+      <c r="C19">
+        <v>2253.3253746507494</v>
+      </c>
+      <c r="D19">
+        <v>3800.9411493046682</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38188078181768403</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59283353415323603</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.21095275233555202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2188.1380940655013</v>
+      </c>
+      <c r="C20">
+        <v>2382.21834807306</v>
+      </c>
+      <c r="D20">
+        <v>4693.0492892633865</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46625082312079186</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50760565279444769</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.1354829673655807E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1146.9076089633097</v>
+      </c>
+      <c r="C21">
+        <v>1305.0413559008937</v>
+      </c>
+      <c r="D21">
+        <v>2546.0134809932356</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45047193093254362</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51258226464369649</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.2110333711152925E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1010.1489780842157</v>
+      </c>
+      <c r="C22">
+        <v>1111.7018957674279</v>
+      </c>
+      <c r="D22">
+        <v>2179.1075358432286</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46356086676251523</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51016385262384178</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.6602985861326572E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1843.1333661659692</v>
+      </c>
+      <c r="C23">
+        <v>1314.2479968596301</v>
+      </c>
+      <c r="D23">
+        <v>3224.8624289442528</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57153860258447353</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40753614326732235</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16400245931715116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>1255.6928835262252</v>
+      </c>
+      <c r="C24">
+        <v>1427.0293486041519</v>
+      </c>
+      <c r="D24">
+        <v>2744.0686556927894</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45760257525670506</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.52004141574361329</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.2438840486908211E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25">
+        <v>1575.8324058113767</v>
+      </c>
+      <c r="C25">
+        <v>2660.719237074838</v>
+      </c>
+      <c r="D25">
+        <v>4304.032708804868</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36612928210040241</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61819215073150757</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.25206286863110522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>1765.4295986210295</v>
+      </c>
+      <c r="C26">
+        <v>2152.0523241046481</v>
+      </c>
+      <c r="D26">
+        <v>3999.2771541422276</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44143717241314379</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.53811032373079537</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.6673151317651571E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>1955.0267914306821</v>
+      </c>
+      <c r="C27">
+        <v>1845.9315122266607</v>
+      </c>
+      <c r="D27">
+        <v>3860.2598464343419</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50644953169059537</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47818840846470922</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8261123225886177E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1072.3119921201676</v>
+      </c>
+      <c r="C28">
+        <v>1456.9509317200452</v>
+      </c>
+      <c r="D28">
+        <v>2582.4298242609702</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4152337391886487</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5641783246276556</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.14894458543900688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>1501.2367889682346</v>
+      </c>
+      <c r="C29">
+        <v>1047.2554090562726</v>
+      </c>
+      <c r="D29">
+        <v>2646.6464757243671</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56722225757686717</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3956914603676514</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17153079720921577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30">
+        <v>1193.5298694902733</v>
+      </c>
+      <c r="C30">
+        <v>1192.2600041563719</v>
+      </c>
+      <c r="D30">
+        <v>2473.7197474194359</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48248386695192691</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48197052451076067</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1334244116623166E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>1815.1600098497909</v>
+      </c>
+      <c r="C31">
+        <v>1196.8633246357401</v>
+      </c>
+      <c r="D31">
+        <v>3083.594161975012</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58865074795938732</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38813905519562952</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20051169276375777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>1507.4530903718296</v>
+      </c>
+      <c r="C32">
+        <v>1429.3310088438359</v>
+      </c>
+      <c r="D32">
+        <v>2985.861238065595</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50486374622969432</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47869974351850159</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6164002711192798E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>1973.6756956414677</v>
+      </c>
+      <c r="C33">
+        <v>1360.2812016533123</v>
+      </c>
+      <c r="D33">
+        <v>3434.1560557800535</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57471927995804373</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39610349080200152</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17861578915604215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>1715.699187392268</v>
+      </c>
+      <c r="C34">
+        <v>1362.5828618929966</v>
+      </c>
+      <c r="D34">
+        <v>3180.5260885559514</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53943880339973682</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42841430126789104</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1110245021318458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35">
+        <v>1575.8324058113767</v>
+      </c>
+      <c r="C35">
+        <v>1468.4592329184659</v>
+      </c>
+      <c r="D35">
+        <v>3134.2663932880478</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50277551684374433</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46851768441353109</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4257832430213256E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>1249.4765821226299</v>
+      </c>
+      <c r="C36">
+        <v>1114.0035560071121</v>
+      </c>
+      <c r="D36">
+        <v>2402.3328730526032</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52010968011062575</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46371740090771307</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>5.6392279202912676E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>1684.6176803742921</v>
+      </c>
+      <c r="C37">
+        <v>1187.6566836770037</v>
+      </c>
+      <c r="D37">
+        <v>2927.4861452574669</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57544855783634574</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40569164967732119</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1697569081590245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>1575.8324058113767</v>
+      </c>
+      <c r="C38">
+        <v>1489.174175075623</v>
+      </c>
+      <c r="D38">
+        <v>3159.0710970160317</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49882777481642088</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47139622038967544</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7431554426745441E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39">
+        <v>860.95774439793161</v>
+      </c>
+      <c r="C39">
+        <v>929.87073683238282</v>
+      </c>
+      <c r="D39">
+        <v>1837.8607392948306</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46845646462216323</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50595277267262651</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.7496308050463313E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40">
+        <v>2486.5205614380698</v>
+      </c>
+      <c r="C40">
+        <v>1549.0173413074099</v>
+      </c>
+      <c r="D40">
+        <v>4119.3780149474433</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60361553429074988</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37603185133452066</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22758368295622924</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41">
+        <v>1836.9170647623739</v>
+      </c>
+      <c r="C41">
+        <v>964.39564042764448</v>
+      </c>
+      <c r="D41">
+        <v>2893.3323405336369</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63487938769715579</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33331657995768799</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30156280773946775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42">
+        <v>1476.3715833538538</v>
+      </c>
+      <c r="C42">
+        <v>787.16780197196761</v>
+      </c>
+      <c r="D42">
+        <v>2335.1102128153025</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63224920830348352</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33710092039849654</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29514828790498693</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>1560.2916523023887</v>
+      </c>
+      <c r="C43">
+        <v>1038.0487680975361</v>
+      </c>
+      <c r="D43">
+        <v>2669.9112478894058</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58439832168047401</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38879523389330828</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1956030877871657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44">
+        <f>SUM(B2:B43)</f>
+        <v>65289.8136419601</v>
+      </c>
+      <c r="C44">
+        <f>SUM(C2:C43)</f>
+        <v>58036.362943634987</v>
+      </c>
+      <c r="D44">
+        <f>SUM(D2:D43)</f>
+        <v>126583.6716767592</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51578385092733359</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45848222108642217</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="2"/>
+        <v>5.7301629840911368E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>